--- a/amelioration-mapping/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-organization-price.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="237">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T07:25:47+00:00</t>
+    <t>2024-03-12T09:15:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -321,9 +321,6 @@
     <t>priceType</t>
   </si>
   <si>
-    <t>typeTarif : JDV-J36-TypeTarif-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:priceType.id</t>
   </si>
   <si>
@@ -390,15 +387,15 @@
 </t>
   </si>
   <si>
+    <t>typeTarif</t>
+  </si>
+  <si>
     <t>Extension.extension:priceUnit</t>
   </si>
   <si>
     <t>priceUnit</t>
   </si>
   <si>
-    <t>unitePrix : JDV-J205-UnitePrix-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:priceUnit.id</t>
   </si>
   <si>
@@ -414,13 +411,13 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J205-UnitePrix-ROR/FHIR/JDV-J205-UnitePrix-ROR</t>
   </si>
   <si>
+    <t>unitePrix</t>
+  </si>
+  <si>
     <t>Extension.extension:amount</t>
   </si>
   <si>
     <t>amount</t>
-  </si>
-  <si>
-    <t>montantTarif</t>
   </si>
   <si>
     <t>Extension.extension:amount.id</t>
@@ -439,13 +436,13 @@
 </t>
   </si>
   <si>
+    <t>montantTarif</t>
+  </si>
+  <si>
     <t>Extension.extension:startDate</t>
   </si>
   <si>
     <t>startDate</t>
-  </si>
-  <si>
-    <t>dateDebutValiditeTarif</t>
   </si>
   <si>
     <t>Extension.extension:startDate.id</t>
@@ -464,13 +461,13 @@
 </t>
   </si>
   <si>
+    <t>dateDebutValiditeTarif</t>
+  </si>
+  <si>
     <t>Extension.extension:under60</t>
   </si>
   <si>
     <t>under60</t>
-  </si>
-  <si>
-    <t>ForfaitSocleHebergement.tarifMoins60Ans</t>
   </si>
   <si>
     <t>Extension.extension:under60.id</t>
@@ -489,15 +486,15 @@
 </t>
   </si>
   <si>
+    <t>ForfaitSocleHebergement.tarifMoins60Ans</t>
+  </si>
+  <si>
     <t>Extension.extension:deliveryIncluded</t>
   </si>
   <si>
     <t>deliveryIncluded</t>
   </si>
   <si>
-    <t>ForfaitSocleHebergement.prestationsNonObligatoiresIncluses : JDV-J206-PrestationNonObligatoireIncluse-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:deliveryIncluded.id</t>
   </si>
   <si>
@@ -513,15 +510,15 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J206-PrestationNonObligatoireIncluse-ROR/FHIR/JDV-J206-PrestationNonObligatoireIncluse-ROR</t>
   </si>
   <si>
+    <t>ForfaitSocleHebergement.prestationsNonObligatoiresIncluses</t>
+  </si>
+  <si>
     <t>Extension.extension:othersDeliveryIncluded</t>
   </si>
   <si>
     <t>othersDeliveryIncluded</t>
   </si>
   <si>
-    <t>ForfaitSocleHebergement.prestationsNonObligatoiresIncluses</t>
-  </si>
-  <si>
     <t>Extension.extension:othersDeliveryIncluded.id</t>
   </si>
   <si>
@@ -540,9 +537,6 @@
     <t>residentialType</t>
   </si>
   <si>
-    <t>ForfaitSocleHebergement.typeHabitation + SupplementTarifHebergement.typeHabitation : JDV-J32-TypeHabitation-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:residentialType.id</t>
   </si>
   <si>
@@ -558,15 +552,15 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J32-TypeHabitation-ROR/FHIR/JDV-J32-TypeHabitation-ROR</t>
   </si>
   <si>
+    <t>ForfaitSocleHebergement.typeHabitation + SupplementTarifHebergement.typeHabitation</t>
+  </si>
+  <si>
     <t>Extension.extension:specialPrice</t>
   </si>
   <si>
     <t>specialPrice</t>
   </si>
   <si>
-    <t>TarifAccueilDeJour+TarifAidesHumaines.conditionTarifaire + ForfaitSocleHebergement.conditionTarifaire + TarifPortageRepas.conditionTarifaire : JDV-J39-ConditionTarifaire-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:specialPrice.id</t>
   </si>
   <si>
@@ -582,15 +576,15 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J39-ConditionTarifaire-ROR/FHIR/JDV-J39-ConditionTarifaire-ROR</t>
   </si>
   <si>
+    <t>TarifAccueilDeJour+TarifAidesHumaines.conditionTarifaire + ForfaitSocleHebergement.conditionTarifaire + TarifPortageRepas.conditionTarifaire</t>
+  </si>
+  <si>
     <t>Extension.extension:welcomeType</t>
   </si>
   <si>
     <t>welcomeType</t>
   </si>
   <si>
-    <t>ForfaitSocleHebergement.temporaliteAccueil + TarifDependance.temporaliteAccueil : JDV-J30-TemporaliteAccueil-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:welcomeType.id</t>
   </si>
   <si>
@@ -606,36 +600,36 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAccueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
   </si>
   <si>
+    <t>ForfaitSocleHebergement.temporaliteAccueil + TarifDependance.temporaliteAccueil</t>
+  </si>
+  <si>
     <t>Extension.extension:mealDeliveryName</t>
   </si>
   <si>
     <t>mealDeliveryName</t>
   </si>
   <si>
+    <t>Extension.extension:mealDeliveryName.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:mealDeliveryName.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:mealDeliveryName.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:mealDeliveryName.value[x]</t>
+  </si>
+  <si>
     <t>TarifPortageRepas.nomTarifPortageRepas</t>
   </si>
   <si>
-    <t>Extension.extension:mealDeliveryName.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:mealDeliveryName.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:mealDeliveryName.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:mealDeliveryName.value[x]</t>
-  </si>
-  <si>
     <t>Extension.extension:dependencyLevel</t>
   </si>
   <si>
     <t>dependencyLevel</t>
   </si>
   <si>
-    <t>TarifDependance.groupeTarifaireDependance : JDV-J27-GroupeTarifaireDependance-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:dependencyLevel.id</t>
   </si>
   <si>
@@ -651,36 +645,36 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J27-GroupeTarifaireDependance-ROR/FHIR/JDV-J27-GroupeTarifaireDependance-ROR</t>
   </si>
   <si>
+    <t>TarifDependance.groupeTarifaireDependance</t>
+  </si>
+  <si>
     <t>Extension.extension:humanHelpPriceName</t>
   </si>
   <si>
     <t>humanHelpPriceName</t>
   </si>
   <si>
+    <t>Extension.extension:humanHelpPriceName.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:humanHelpPriceName.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:humanHelpPriceName.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:humanHelpPriceName.value[x]</t>
+  </si>
+  <si>
     <t>TarifAidesHumaines.nomTarifAidesHumaines</t>
   </si>
   <si>
-    <t>Extension.extension:humanHelpPriceName.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:humanHelpPriceName.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:humanHelpPriceName.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:humanHelpPriceName.value[x]</t>
-  </si>
-  <si>
     <t>Extension.extension:managementType</t>
   </si>
   <si>
     <t>managementType</t>
   </si>
   <si>
-    <t>TarifAidesHumaines.modeGestion : JDV-J26-ModeGestion-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:managementType.id</t>
   </si>
   <si>
@@ -696,36 +690,36 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J26-ModeGestion-ROR/FHIR/JDV-J26-ModeGestion-ROR</t>
   </si>
   <si>
+    <t>TarifAidesHumaines.modeGestion</t>
+  </si>
+  <si>
     <t>Extension.extension:otherAdditionalServiceName</t>
   </si>
   <si>
     <t>otherAdditionalServiceName</t>
   </si>
   <si>
+    <t>Extension.extension:otherAdditionalServiceName.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:otherAdditionalServiceName.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:otherAdditionalServiceName.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:otherAdditionalServiceName.value[x]</t>
+  </si>
+  <si>
     <t>TarifPrestationSupplementaire.nomAutrePrestationSupp</t>
   </si>
   <si>
-    <t>Extension.extension:otherAdditionalServiceName.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:otherAdditionalServiceName.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:otherAdditionalServiceName.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:otherAdditionalServiceName.value[x]</t>
-  </si>
-  <si>
     <t>Extension.extension:additionalServiceName</t>
   </si>
   <si>
     <t>additionalServiceName</t>
   </si>
   <si>
-    <t>TarifPrestationSupplementaire.nomPrestationSupp : JDV-J206-PrestationNonObligatoireIncluse-ROR</t>
-  </si>
-  <si>
     <t>Extension.extension:additionalServiceName.id</t>
   </si>
   <si>
@@ -736,6 +730,9 @@
   </si>
   <si>
     <t>Extension.extension:additionalServiceName.value[x]</t>
+  </si>
+  <si>
+    <t>TarifPrestationSupplementaire.nomPrestationSupp</t>
   </si>
   <si>
     <t>base64Binary
@@ -1095,7 +1092,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="164.03515625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="133.78125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1637,15 +1634,15 @@
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1748,10 +1745,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1854,10 +1851,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1880,16 +1877,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1939,22 +1936,22 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -1962,10 +1959,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1988,13 +1985,13 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2021,29 +2018,29 @@
         <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2055,13 +2052,13 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AK9" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -2169,15 +2166,15 @@
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2280,10 +2277,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2386,10 +2383,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2412,16 +2409,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2471,22 +2468,22 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2494,10 +2491,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2520,13 +2517,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2553,11 +2550,11 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2575,7 +2572,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2587,13 +2584,13 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -2701,15 +2698,15 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2812,10 +2809,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2918,10 +2915,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2944,16 +2941,16 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3003,22 +3000,22 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3026,10 +3023,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3052,13 +3049,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3109,7 +3106,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3121,13 +3118,13 @@
         <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
@@ -3235,15 +3232,15 @@
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3346,10 +3343,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3452,10 +3449,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3478,16 +3475,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3537,22 +3534,22 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3560,10 +3557,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3586,13 +3583,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3643,7 +3640,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -3655,13 +3652,13 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
@@ -3769,15 +3766,15 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3880,10 +3877,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3986,10 +3983,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4012,16 +4009,16 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4071,22 +4068,22 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4094,10 +4091,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4120,13 +4117,13 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4177,7 +4174,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4189,13 +4186,13 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30">
@@ -4303,15 +4300,15 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4414,10 +4411,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4520,10 +4517,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4546,16 +4543,16 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4605,22 +4602,22 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4628,10 +4625,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4654,13 +4651,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4687,11 +4684,11 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -4709,7 +4706,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -4721,13 +4718,13 @@
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35">
@@ -4835,15 +4832,15 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4946,10 +4943,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5052,10 +5049,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5078,16 +5075,16 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5137,22 +5134,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5160,10 +5157,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5189,10 +5186,10 @@
         <v>85</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5243,7 +5240,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5255,24 +5252,24 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>76</v>
@@ -5369,15 +5366,15 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5480,10 +5477,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5586,10 +5583,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5612,16 +5609,16 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5629,7 +5626,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>76</v>
@@ -5671,22 +5668,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -5694,10 +5691,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5720,13 +5717,13 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5753,11 +5750,11 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -5775,7 +5772,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -5787,24 +5784,24 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
@@ -5901,15 +5898,15 @@
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6012,10 +6009,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6118,10 +6115,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6144,16 +6141,16 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -6161,7 +6158,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>76</v>
@@ -6203,22 +6200,22 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
@@ -6226,10 +6223,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6252,13 +6249,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6285,11 +6282,11 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -6307,7 +6304,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6319,24 +6316,24 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>76</v>
@@ -6433,15 +6430,15 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>187</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6544,10 +6541,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6650,10 +6647,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6676,16 +6673,16 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -6693,7 +6690,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>76</v>
@@ -6735,22 +6732,22 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -6758,10 +6755,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6784,13 +6781,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6817,11 +6814,11 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -6839,7 +6836,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -6851,24 +6848,24 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>76</v>
@@ -6965,15 +6962,15 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7076,10 +7073,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7182,10 +7179,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7208,16 +7205,16 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -7225,7 +7222,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>76</v>
@@ -7267,22 +7264,22 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -7290,10 +7287,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7319,10 +7316,10 @@
         <v>85</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7373,7 +7370,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -7385,24 +7382,24 @@
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>76</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>76</v>
@@ -7499,15 +7496,15 @@
         <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7610,10 +7607,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7716,10 +7713,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7742,16 +7739,16 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -7759,7 +7756,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>76</v>
@@ -7801,22 +7798,22 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -7824,10 +7821,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7850,13 +7847,13 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7883,11 +7880,11 @@
         <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -7905,7 +7902,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -7917,24 +7914,24 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>76</v>
@@ -8031,15 +8028,15 @@
         <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>210</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8142,10 +8139,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8248,10 +8245,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8274,16 +8271,16 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -8291,7 +8288,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>76</v>
@@ -8333,22 +8330,22 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK68" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -8356,10 +8353,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8385,10 +8382,10 @@
         <v>85</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8439,7 +8436,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -8451,24 +8448,24 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>76</v>
@@ -8565,15 +8562,15 @@
         <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8676,10 +8673,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8782,10 +8779,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8808,16 +8805,16 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -8825,7 +8822,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>76</v>
@@ -8867,22 +8864,22 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
@@ -8890,10 +8887,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -8916,13 +8913,13 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -8949,11 +8946,11 @@
         <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>76</v>
@@ -8971,7 +8968,7 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -8983,24 +8980,24 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>76</v>
@@ -9097,15 +9094,15 @@
         <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9208,10 +9205,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9314,10 +9311,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9340,16 +9337,16 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -9357,7 +9354,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>76</v>
@@ -9399,22 +9396,22 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
@@ -9422,10 +9419,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9451,10 +9448,10 @@
         <v>85</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9505,7 +9502,7 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -9517,24 +9514,24 @@
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>90</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>76</v>
@@ -9631,15 +9628,15 @@
         <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>232</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9742,10 +9739,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9848,10 +9845,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -9874,16 +9871,16 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -9891,7 +9888,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>76</v>
@@ -9933,22 +9930,22 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -9956,10 +9953,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -9982,13 +9979,13 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10015,11 +10012,11 @@
         <v>76</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>76</v>
@@ -10037,7 +10034,7 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -10049,21 +10046,21 @@
         <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10086,16 +10083,16 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -10145,22 +10142,22 @@
         <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>76</v>
@@ -10168,10 +10165,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10194,13 +10191,13 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -10251,7 +10248,7 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -10263,10 +10260,10 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>76</v>

--- a/amelioration-mapping/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T09:15:29+00:00</t>
+    <t>2024-03-12T16:16:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:16:50+00:00</t>
+    <t>2024-03-12T16:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/amelioration-mapping/ig/StructureDefinition-ror-organization-price.xlsx
+++ b/amelioration-mapping/ig/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T16:39:05+00:00</t>
+    <t>2024-03-12T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
